--- a/hardware/parts/BOM.xlsx
+++ b/hardware/parts/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Project-Mercury\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A27D44-859D-4C98-BFFF-B5AAC3AA0CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED38B2A0-0F62-4198-AA48-5EB529A9CA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
   </bookViews>
@@ -32,9 +32,143 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>LCSC Part #（optional）</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>MFR. Part #</t>
+  </si>
+  <si>
+    <t>STM32H743IIT6</t>
+  </si>
+  <si>
+    <t>LQFP-176_24.0x24.0x0.5P</t>
+  </si>
+  <si>
+    <t>C89597</t>
+  </si>
+  <si>
+    <t>Main MCU</t>
+  </si>
+  <si>
+    <t>MPL3115A2R1</t>
+  </si>
+  <si>
+    <t>NXP Semicon</t>
+  </si>
+  <si>
+    <t>LGA-8_3x5mm</t>
+  </si>
+  <si>
+    <t>C54429</t>
+  </si>
+  <si>
+    <t>Altimeter</t>
+  </si>
+  <si>
+    <t>TDK InvenSense</t>
+  </si>
+  <si>
+    <t>QFN-24_4x4x05P</t>
+  </si>
+  <si>
+    <t>C24112</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>MPU-6050</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>CC2500</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>CC2591</t>
+  </si>
+  <si>
+    <t>C57494</t>
+  </si>
+  <si>
+    <t>RF Transceiver</t>
+  </si>
+  <si>
+    <t>RF Front End</t>
+  </si>
+  <si>
+    <t>QFN-20_4x4x05P</t>
+  </si>
+  <si>
+    <t>C17205</t>
+  </si>
+  <si>
+    <t>QFN-16_4x4x065P</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>C6186</t>
+  </si>
+  <si>
+    <t>Power Delivery - 3.3V</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>Advanced Monolithic Systems</t>
+  </si>
+  <si>
+    <t>Power Delivery - 5.0V</t>
+  </si>
+  <si>
+    <t>AMS1117-5.0</t>
+  </si>
+  <si>
+    <t>C6187</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +176,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,14 +219,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,12 +556,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A664FD-7BBB-46C5-962E-B53DC8A09416}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="7" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://lcsc.com/product-detail/ST-Microelectronics_STMicroelectronics_STM32H743IIT6_STM32H743IIT6_C89597.html/?href=jlc-SMT" xr:uid="{BBDBB47D-E704-4840-9261-22A1B6365041}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
--- a/hardware/parts/BOM.xlsx
+++ b/hardware/parts/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED38B2A0-0F62-4198-AA48-5EB529A9CA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9142E7-CDBB-443E-99F6-E7BB64800F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Comment</t>
   </si>
@@ -162,13 +162,76 @@
   </si>
   <si>
     <t>C6187</t>
+  </si>
+  <si>
+    <t>TYPE-C-31-M-17</t>
+  </si>
+  <si>
+    <t>Korean Hroparts Elec</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>C283540</t>
+  </si>
+  <si>
+    <t>USB Receptical</t>
+  </si>
+  <si>
+    <t>TUSB320HAIRWBR</t>
+  </si>
+  <si>
+    <t>X2QFN-12</t>
+  </si>
+  <si>
+    <t>C414628</t>
+  </si>
+  <si>
+    <t>USB C CC IC</t>
+  </si>
+  <si>
+    <t>LQFP-100_14.0x14.0x0.5P</t>
+  </si>
+  <si>
+    <t>Main MCU ALT</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
+  </si>
+  <si>
+    <t>STM32F407VGT6</t>
+  </si>
+  <si>
+    <t>C12345</t>
+  </si>
+  <si>
+    <t>Winbond Elec</t>
+  </si>
+  <si>
+    <t>W25N01GVZEIG</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>WSON-8_EP_6.0x8.0x1.27P</t>
+  </si>
+  <si>
+    <t>C88868</t>
+  </si>
+  <si>
+    <t>1GB Flash Storage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +258,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF525252"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -241,6 +310,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -556,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A664FD-7BBB-46C5-962E-B53DC8A09416}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +637,7 @@
     <col min="1" max="7" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -590,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -607,72 +677,75 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -681,38 +754,38 @@
         <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -724,10 +797,90 @@
         <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/parts/BOM.xlsx
+++ b/hardware/parts/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9142E7-CDBB-443E-99F6-E7BB64800F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA8E2C-94BD-48DF-9EB3-A62F2A02A31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
+    <workbookView xWindow="5760" yWindow="780" windowWidth="17280" windowHeight="8964" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Comment</t>
   </si>
@@ -225,6 +225,21 @@
   </si>
   <si>
     <t>1GB Flash Storage</t>
+  </si>
+  <si>
+    <t>X322516MLB4SI</t>
+  </si>
+  <si>
+    <t>Yangxing Tech</t>
+  </si>
+  <si>
+    <t>SMD-CRY-3225_4P</t>
+  </si>
+  <si>
+    <t>C13738</t>
+  </si>
+  <si>
+    <t>16 MHz Oscillator</t>
   </si>
 </sst>
 </file>
@@ -626,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A664FD-7BBB-46C5-962E-B53DC8A09416}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,6 +898,26 @@
         <v>63</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/hardware/parts/BOM.xlsx
+++ b/hardware/parts/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA8E2C-94BD-48DF-9EB3-A62F2A02A31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE25B1BD-D6AE-4682-9DEB-5E8BA60F0DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="780" windowWidth="17280" windowHeight="8964" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Comment</t>
   </si>
@@ -162,36 +162,6 @@
   </si>
   <si>
     <t>C6187</t>
-  </si>
-  <si>
-    <t>TYPE-C-31-M-17</t>
-  </si>
-  <si>
-    <t>Korean Hroparts Elec</t>
-  </si>
-  <si>
-    <t>I/O</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>C283540</t>
-  </si>
-  <si>
-    <t>USB Receptical</t>
-  </si>
-  <si>
-    <t>TUSB320HAIRWBR</t>
-  </si>
-  <si>
-    <t>X2QFN-12</t>
-  </si>
-  <si>
-    <t>C414628</t>
-  </si>
-  <si>
-    <t>USB C CC IC</t>
   </si>
   <si>
     <t>LQFP-100_14.0x14.0x0.5P</t>
@@ -643,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A664FD-7BBB-46C5-962E-B53DC8A09416}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,15 +662,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -709,10 +679,10 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -839,83 +809,52 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/parts/BOM.xlsx
+++ b/hardware/parts/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE25B1BD-D6AE-4682-9DEB-5E8BA60F0DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C0176B-4EFC-45FB-95FD-30CBBCBF8C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="780" windowWidth="17280" windowHeight="8964" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Comment</t>
   </si>
@@ -210,6 +210,21 @@
   </si>
   <si>
     <t>16 MHz Oscillator</t>
+  </si>
+  <si>
+    <t>TE Connectivity 5-1814832-2</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>C482015</t>
+  </si>
+  <si>
+    <t>SMA Connector</t>
   </si>
 </sst>
 </file>
@@ -613,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A664FD-7BBB-46C5-962E-B53DC8A09416}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,8 +824,24 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>

--- a/hardware/parts/BOM.xlsx
+++ b/hardware/parts/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C0176B-4EFC-45FB-95FD-30CBBCBF8C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0C5AC0-F85F-4370-AF55-1EC9738F944A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
+    <workbookView xWindow="11028" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{20CA75D0-32CF-46D3-AED3-BC8C3487575F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Comment</t>
   </si>
@@ -56,15 +56,6 @@
     <t>MFR. Part #</t>
   </si>
   <si>
-    <t>STM32H743IIT6</t>
-  </si>
-  <si>
-    <t>LQFP-176_24.0x24.0x0.5P</t>
-  </si>
-  <si>
-    <t>C89597</t>
-  </si>
-  <si>
     <t>Main MCU</t>
   </si>
   <si>
@@ -167,12 +158,6 @@
     <t>LQFP-100_14.0x14.0x0.5P</t>
   </si>
   <si>
-    <t>Main MCU ALT</t>
-  </si>
-  <si>
-    <t>REMOVE</t>
-  </si>
-  <si>
     <t>STM32F407VGT6</t>
   </si>
   <si>
@@ -225,6 +210,21 @@
   </si>
   <si>
     <t>SMA Connector</t>
+  </si>
+  <si>
+    <t>KDS Daishinku</t>
+  </si>
+  <si>
+    <t>1C/N226000AA0D</t>
+  </si>
+  <si>
+    <t>SMD-3225_4P</t>
+  </si>
+  <si>
+    <t>C160424</t>
+  </si>
+  <si>
+    <t>26 MHz Oscillator</t>
   </si>
 </sst>
 </file>
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A664FD-7BBB-46C5-962E-B53DC8A09416}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +637,7 @@
     <col min="1" max="7" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -660,203 +660,200 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>41</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -868,32 +865,29 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>54</v>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://lcsc.com/product-detail/ST-Microelectronics_STMicroelectronics_STM32H743IIT6_STM32H743IIT6_C89597.html/?href=jlc-SMT" xr:uid="{BBDBB47D-E704-4840-9261-22A1B6365041}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>